--- a/NetBeans/Projet_2ème semestre/Journal de travail Benoît Héritier.xlsx
+++ b/NetBeans/Projet_2ème semestre/Journal de travail Benoît Héritier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b821a0e029b13e79/HES/2eme semestre/Fondements de la programmation/NetBeans/Projet_2ème semestre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben\OneDrive\HES\2eme semestre\Fondements de la programmation\NetBeans\Projet_2ème semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{315C61A6-41D1-4101-B70D-A9F74D8CD1CD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{09132E09-AFF7-4951-8E16-A6328795F623}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{315C61A6-41D1-4101-B70D-A9F74D8CD1CD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{D2BA6943-9701-404F-9322-1642D6207B54}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C7DC023D-44B1-40A8-99FC-6A7D3F3678F6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>05.05.2018</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Préparation fichier .jar + explication objet à Hadrien</t>
+  </si>
+  <si>
+    <t>14.06.0281</t>
+  </si>
+  <si>
+    <t>Commit All + merge 2 apps</t>
   </si>
 </sst>
 </file>
@@ -571,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6E5228-E9F6-4752-A3CE-2F928C344D13}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,6 +993,17 @@
       </c>
       <c r="C37" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="4">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1023,6 +1040,7 @@
     <hyperlink ref="C32" r:id="rId29" tooltip="Update" display="https://github.com/heritierb/projet2sem/commit/bc853ecb198a234d5aef379762dab3cf68ae2a6d" xr:uid="{09ABB930-5D40-40F7-9C51-053259966000}"/>
     <hyperlink ref="C33" r:id="rId30" tooltip="Update" display="https://github.com/heritierb/projet2sem/commit/c2d3b9c4998bc0edf522ea9f85e356039af63589" xr:uid="{457AEE50-70CF-4A19-9D14-60881CF34B77}"/>
     <hyperlink ref="C34" r:id="rId31" tooltip="Update" display="https://github.com/heritierb/projet2sem/commit/b7a3eca9c997844d0c8818e8375428bdb393c541" xr:uid="{B404856E-8F1D-462E-8CEB-7DD0CB80D3B9}"/>
+    <hyperlink ref="C38" r:id="rId32" tooltip="Commit All" display="https://github.com/heritierb/projet2sem/commit/32d1fb8ac846720847042cb933a2669f92800bab" xr:uid="{543E4C1E-C8D6-4D9B-9790-BBA9225F166C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
